--- a/mbs-perturbation/greedy/MLP/greedy-mlp-results.xlsx
+++ b/mbs-perturbation/greedy/MLP/greedy-mlp-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07999999999999999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9509379509379509</v>
+        <v>0.9350649350649352</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2958152958152958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5826086956521739</v>
+        <v>0.7318840579710144</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9567099567099566</v>
+        <v>0.8138528138528138</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3138528138528138</v>
+        <v>0.2445887445887446</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6199849425936382</v>
+        <v>0.7450781102955016</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/greedy/MLP/greedy-mlp-results.xlsx
+++ b/mbs-perturbation/greedy/MLP/greedy-mlp-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9350649350649352</v>
+        <v>0.2894230769230769</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9336538461538462</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7318840579710144</v>
+        <v>0.6610576923076923</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8138528138528138</v>
+        <v>0.4290865384615384</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2445887445887446</v>
+        <v>0.2524038461538461</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7450781102955016</v>
+        <v>0.5131250000000001</v>
       </c>
     </row>
   </sheetData>
